--- a/results/mp/logistic/corona/confidence/84/masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,39 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -88,120 +88,120 @@
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>?</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +586,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8082191780821918</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -691,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7837837837837838</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,13 +718,13 @@
         <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +768,13 @@
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
         <v>27</v>
@@ -859,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5767195767195767</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +968,13 @@
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8276762402088773</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5423728813559322</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5368217054263565</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4055555555555556</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3733333333333334</v>
+        <v>0.425</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1662198391420912</v>
+        <v>0.1796246648793566</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
@@ -1441,37 +1444,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01580135440180587</v>
+        <v>0.02588438308886971</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F19">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3052</v>
+        <v>1129</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,37 +1494,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01517067003792667</v>
+        <v>0.02285230639018197</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="F20">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2337</v>
+        <v>2309</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,37 +1544,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01358950328022493</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="F21">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,37 +1594,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01220575414123801</v>
+        <v>0.01388440426218922</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="F22">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2266</v>
+        <v>3054</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,37 +1644,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00862671951503847</v>
+        <v>0.009376831412385232</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E23">
+        <v>0.49</v>
+      </c>
+      <c r="F23">
         <v>0.51</v>
       </c>
-      <c r="F23">
-        <v>0.49</v>
-      </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4252</v>
+        <v>5071</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6735294117647059</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L23">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M23">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,37 +1694,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007810974419058777</v>
+        <v>0.008287851222963412</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E24">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F24">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5081</v>
+        <v>4906</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6307692307692307</v>
+        <v>0.65</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,13 +1744,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007482305358948432</v>
+        <v>0.007704879757179547</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0.58</v>
@@ -1759,19 +1762,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4908</v>
+        <v>4250</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1791,13 +1794,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5884353741496599</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M26">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N26">
         <v>0.99</v>
@@ -1809,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1817,13 +1820,13 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5857740585774058</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L27">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1843,13 +1846,13 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1861,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1869,13 +1872,13 @@
         <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1887,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1895,13 +1898,13 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>0.4943820224719101</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1913,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1921,13 +1924,13 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>0.3835616438356164</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1939,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1947,7 +1950,7 @@
         <v>61</v>
       </c>
       <c r="K32">
-        <v>0.3333333333333333</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L32">
         <v>26</v>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1973,25 +1976,25 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.04761904761904762</v>
+        <v>0.05118829981718465</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1999,25 +2002,25 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.04347826086956522</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L34">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M34">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2025,25 +2028,25 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.02223897474557105</v>
+        <v>0.01881113619262604</v>
       </c>
       <c r="L35">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M35">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N35">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="O35">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2594</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2051,25 +2054,25 @@
         <v>65</v>
       </c>
       <c r="K36">
-        <v>0.0200920887400586</v>
+        <v>0.01277297074577668</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N36">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
       <c r="O36">
-        <v>0.08999999999999997</v>
+        <v>0.37</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2341</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2077,25 +2080,25 @@
         <v>66</v>
       </c>
       <c r="K37">
-        <v>0.01224874371859296</v>
+        <v>0.01213389121338912</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="O37">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3145</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2103,13 +2106,13 @@
         <v>30</v>
       </c>
       <c r="K38">
-        <v>0.0102843315184513</v>
+        <v>0.01047729918509895</v>
       </c>
       <c r="L38">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N38">
         <v>0.58</v>
@@ -2121,59 +2124,85 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4908</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K39">
-        <v>0.00908879049172687</v>
+        <v>0.009889001009081735</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M39">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N39">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="O39">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4252</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0.009113764927718416</v>
+      </c>
+      <c r="L40">
         <v>29</v>
       </c>
-      <c r="K40">
-        <v>0.008585365853658537</v>
-      </c>
-      <c r="L40">
-        <v>44</v>
-      </c>
       <c r="M40">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N40">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="O40">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>5081</v>
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41">
+        <v>0.008989642368575338</v>
+      </c>
+      <c r="L41">
+        <v>46</v>
+      </c>
+      <c r="M41">
+        <v>94</v>
+      </c>
+      <c r="N41">
+        <v>0.49</v>
+      </c>
+      <c r="O41">
+        <v>0.51</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>5071</v>
       </c>
     </row>
   </sheetData>
